--- a/biology/Médecine/Mustapha_Mahmoud/Mustapha_Mahmoud.xlsx
+++ b/biology/Médecine/Mustapha_Mahmoud/Mustapha_Mahmoud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mustapha Kamal Mahmoud Husayn (arabe : مصطفى كمال محمود حسين) est un penseur, écrivain et médecin égyptien né à Shibin El Kom le  25 décembre 1921.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père est mort en 1939 après des années de paralysie. Mustapha a étudié la médecine et a obtenu son diplôme en 1953, puis il s'est mis à l'écriture et la recherche en 1960.
 </t>
@@ -542,10 +556,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(2001) Du doute à la foi [2]
-(1998) Dialogue avec un ami athée  [3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(2001) Du doute à la foi 
+(1998) Dialogue avec un ami athée  
 (1975) Le plus grand secret</t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Programme télévisé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La science et la foi (arabe : العلم والإيمان)</t>
         </is>
@@ -604,7 +622,9 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se marie en 1961 puis divorce en 1973. De ce premier mariage naissent deux enfants : Amal et Adham.  Il se remarie en 1983 mais finit par divorcer une nouvelle fois en 1987.
 </t>
@@ -635,7 +655,9 @@
           <t>Honneur</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'astéroïde (296753) Mustafamahmoud a été nommé en son honneur.
 </t>
